--- a/data/raw/money_spent.xlsx
+++ b/data/raw/money_spent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/final_year_project/Forecasting-Tourism-Demand-in-Singapore/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEC820-2053-1C4B-B58B-9CD6CD2F78C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DE5B3A-D644-084B-9D41-69626A71E401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="720" windowWidth="28800" windowHeight="16460" xr2:uid="{D1CA90E1-283B-40FE-A5AE-1D6EC3E1B9B3}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="16460" xr2:uid="{D1CA90E1-283B-40FE-A5AE-1D6EC3E1B9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -1935,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D00C48-1883-0F4B-93A6-BC678D1A8B23}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X21" activeCellId="1" sqref="AC11 X21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -82477,7 +82477,7 @@
         <v>0</v>
       </c>
       <c r="C839" s="24" t="str">
-        <f t="shared" ref="C839:C902" si="13">A839&amp;"-"&amp;B839</f>
+        <f t="shared" ref="C839:C898" si="13">A839&amp;"-"&amp;B839</f>
         <v>798-0</v>
       </c>
       <c r="D839" s="53" t="s">
@@ -88475,206 +88475,6 @@
     </row>
   </sheetData>
   <mergeCells count="223">
-    <mergeCell ref="AN884:AN886"/>
-    <mergeCell ref="AN888:AN890"/>
-    <mergeCell ref="AN892:AN894"/>
-    <mergeCell ref="AN896:AN898"/>
-    <mergeCell ref="AN864:AN866"/>
-    <mergeCell ref="AN868:AN870"/>
-    <mergeCell ref="AN872:AN874"/>
-    <mergeCell ref="AN876:AN878"/>
-    <mergeCell ref="AN880:AN882"/>
-    <mergeCell ref="AN844:AN846"/>
-    <mergeCell ref="AN848:AN850"/>
-    <mergeCell ref="AN852:AN854"/>
-    <mergeCell ref="AN856:AN858"/>
-    <mergeCell ref="AN860:AN862"/>
-    <mergeCell ref="AN824:AN826"/>
-    <mergeCell ref="AN828:AN830"/>
-    <mergeCell ref="AN832:AN834"/>
-    <mergeCell ref="AN836:AN838"/>
-    <mergeCell ref="AN840:AN842"/>
-    <mergeCell ref="AN808:AN810"/>
-    <mergeCell ref="AN812:AN814"/>
-    <mergeCell ref="AN816:AN818"/>
-    <mergeCell ref="AN820:AN822"/>
-    <mergeCell ref="AN784:AN786"/>
-    <mergeCell ref="AN788:AN790"/>
-    <mergeCell ref="AN792:AN794"/>
-    <mergeCell ref="AN796:AN798"/>
-    <mergeCell ref="AN800:AN802"/>
-    <mergeCell ref="AN772:AN774"/>
-    <mergeCell ref="AN776:AN778"/>
-    <mergeCell ref="AN780:AN782"/>
-    <mergeCell ref="AN744:AN746"/>
-    <mergeCell ref="AN748:AN750"/>
-    <mergeCell ref="AN752:AN754"/>
-    <mergeCell ref="AN756:AN758"/>
-    <mergeCell ref="AN760:AN762"/>
-    <mergeCell ref="AN804:AN806"/>
-    <mergeCell ref="AN736:AN738"/>
-    <mergeCell ref="AN740:AN742"/>
-    <mergeCell ref="AN700:AN702"/>
-    <mergeCell ref="AN704:AN706"/>
-    <mergeCell ref="AN708:AN710"/>
-    <mergeCell ref="AN716:AN718"/>
-    <mergeCell ref="AN720:AN722"/>
-    <mergeCell ref="AN764:AN766"/>
-    <mergeCell ref="AN768:AN770"/>
-    <mergeCell ref="AN712:AN714"/>
-    <mergeCell ref="AN680:AN682"/>
-    <mergeCell ref="AN684:AN686"/>
-    <mergeCell ref="AN688:AN690"/>
-    <mergeCell ref="AN692:AN694"/>
-    <mergeCell ref="AN696:AN698"/>
-    <mergeCell ref="AN724:AN726"/>
-    <mergeCell ref="AN728:AN730"/>
-    <mergeCell ref="AN732:AN734"/>
-    <mergeCell ref="AN660:AN662"/>
-    <mergeCell ref="AN664:AN666"/>
-    <mergeCell ref="AN668:AN670"/>
-    <mergeCell ref="AN672:AN674"/>
-    <mergeCell ref="AN676:AN678"/>
-    <mergeCell ref="AN640:AN642"/>
-    <mergeCell ref="AN644:AN646"/>
-    <mergeCell ref="AN648:AN650"/>
-    <mergeCell ref="AN652:AN654"/>
-    <mergeCell ref="AN656:AN658"/>
-    <mergeCell ref="AN620:AN622"/>
-    <mergeCell ref="AN624:AN626"/>
-    <mergeCell ref="AN628:AN630"/>
-    <mergeCell ref="AN632:AN634"/>
-    <mergeCell ref="AN636:AN638"/>
-    <mergeCell ref="AN600:AN602"/>
-    <mergeCell ref="AN604:AN606"/>
-    <mergeCell ref="AN608:AN610"/>
-    <mergeCell ref="AN612:AN614"/>
-    <mergeCell ref="AN616:AN618"/>
-    <mergeCell ref="AN580:AN582"/>
-    <mergeCell ref="AN584:AN586"/>
-    <mergeCell ref="AN588:AN590"/>
-    <mergeCell ref="AN592:AN594"/>
-    <mergeCell ref="AN596:AN598"/>
-    <mergeCell ref="AN560:AN562"/>
-    <mergeCell ref="AN564:AN566"/>
-    <mergeCell ref="AN568:AN570"/>
-    <mergeCell ref="AN572:AN574"/>
-    <mergeCell ref="AN576:AN578"/>
-    <mergeCell ref="AN540:AN542"/>
-    <mergeCell ref="AN544:AN546"/>
-    <mergeCell ref="AN548:AN550"/>
-    <mergeCell ref="AN552:AN554"/>
-    <mergeCell ref="AN556:AN558"/>
-    <mergeCell ref="AN520:AN522"/>
-    <mergeCell ref="AN524:AN526"/>
-    <mergeCell ref="AN528:AN530"/>
-    <mergeCell ref="AN532:AN534"/>
-    <mergeCell ref="AN536:AN538"/>
-    <mergeCell ref="AN500:AN502"/>
-    <mergeCell ref="AN504:AN506"/>
-    <mergeCell ref="AN508:AN510"/>
-    <mergeCell ref="AN512:AN514"/>
-    <mergeCell ref="AN516:AN518"/>
-    <mergeCell ref="AN480:AN482"/>
-    <mergeCell ref="AN484:AN486"/>
-    <mergeCell ref="AN488:AN490"/>
-    <mergeCell ref="AN492:AN494"/>
-    <mergeCell ref="AN496:AN498"/>
-    <mergeCell ref="AN460:AN462"/>
-    <mergeCell ref="AN464:AN466"/>
-    <mergeCell ref="AN468:AN470"/>
-    <mergeCell ref="AN472:AN474"/>
-    <mergeCell ref="AN476:AN478"/>
-    <mergeCell ref="AN440:AN442"/>
-    <mergeCell ref="AN444:AN446"/>
-    <mergeCell ref="AN448:AN450"/>
-    <mergeCell ref="AN452:AN454"/>
-    <mergeCell ref="AN456:AN458"/>
-    <mergeCell ref="AN420:AN422"/>
-    <mergeCell ref="AN424:AN426"/>
-    <mergeCell ref="AN428:AN430"/>
-    <mergeCell ref="AN432:AN434"/>
-    <mergeCell ref="AN436:AN438"/>
-    <mergeCell ref="AN400:AN402"/>
-    <mergeCell ref="AN404:AN406"/>
-    <mergeCell ref="AN408:AN410"/>
-    <mergeCell ref="AN412:AN414"/>
-    <mergeCell ref="AN416:AN418"/>
-    <mergeCell ref="AN380:AN382"/>
-    <mergeCell ref="AN384:AN386"/>
-    <mergeCell ref="AN388:AN390"/>
-    <mergeCell ref="AN392:AN394"/>
-    <mergeCell ref="AN396:AN398"/>
-    <mergeCell ref="AN360:AN362"/>
-    <mergeCell ref="AN364:AN366"/>
-    <mergeCell ref="AN368:AN370"/>
-    <mergeCell ref="AN372:AN374"/>
-    <mergeCell ref="AN376:AN378"/>
-    <mergeCell ref="AN340:AN342"/>
-    <mergeCell ref="AN344:AN346"/>
-    <mergeCell ref="AN348:AN350"/>
-    <mergeCell ref="AN352:AN354"/>
-    <mergeCell ref="AN356:AN358"/>
-    <mergeCell ref="AN320:AN322"/>
-    <mergeCell ref="AN324:AN326"/>
-    <mergeCell ref="AN328:AN330"/>
-    <mergeCell ref="AN332:AN334"/>
-    <mergeCell ref="AN336:AN338"/>
-    <mergeCell ref="AN300:AN302"/>
-    <mergeCell ref="AN304:AN306"/>
-    <mergeCell ref="AN308:AN310"/>
-    <mergeCell ref="AN312:AN314"/>
-    <mergeCell ref="AN316:AN318"/>
-    <mergeCell ref="AN280:AN282"/>
-    <mergeCell ref="AN284:AN286"/>
-    <mergeCell ref="AN288:AN290"/>
-    <mergeCell ref="AN292:AN294"/>
-    <mergeCell ref="AN296:AN298"/>
-    <mergeCell ref="AN260:AN262"/>
-    <mergeCell ref="AN264:AN266"/>
-    <mergeCell ref="AN268:AN270"/>
-    <mergeCell ref="AN272:AN274"/>
-    <mergeCell ref="AN276:AN278"/>
-    <mergeCell ref="AN240:AN242"/>
-    <mergeCell ref="AN244:AN246"/>
-    <mergeCell ref="AN248:AN250"/>
-    <mergeCell ref="AN252:AN254"/>
-    <mergeCell ref="AN256:AN258"/>
-    <mergeCell ref="AN220:AN222"/>
-    <mergeCell ref="AN224:AN226"/>
-    <mergeCell ref="AN228:AN230"/>
-    <mergeCell ref="AN232:AN234"/>
-    <mergeCell ref="AN236:AN238"/>
-    <mergeCell ref="AN200:AN202"/>
-    <mergeCell ref="AN204:AN206"/>
-    <mergeCell ref="AN208:AN210"/>
-    <mergeCell ref="AN212:AN214"/>
-    <mergeCell ref="AN216:AN218"/>
-    <mergeCell ref="AN180:AN182"/>
-    <mergeCell ref="AN184:AN186"/>
-    <mergeCell ref="AN188:AN190"/>
-    <mergeCell ref="AN192:AN194"/>
-    <mergeCell ref="AN196:AN198"/>
-    <mergeCell ref="AN160:AN162"/>
-    <mergeCell ref="AN164:AN166"/>
-    <mergeCell ref="AN168:AN170"/>
-    <mergeCell ref="AN172:AN174"/>
-    <mergeCell ref="AN176:AN178"/>
-    <mergeCell ref="AN140:AN142"/>
-    <mergeCell ref="AN144:AN146"/>
-    <mergeCell ref="AN148:AN150"/>
-    <mergeCell ref="AN152:AN154"/>
-    <mergeCell ref="AN156:AN158"/>
-    <mergeCell ref="AN120:AN122"/>
-    <mergeCell ref="AN124:AN126"/>
-    <mergeCell ref="AN128:AN130"/>
-    <mergeCell ref="AN132:AN134"/>
-    <mergeCell ref="AN136:AN138"/>
-    <mergeCell ref="AN100:AN102"/>
-    <mergeCell ref="AN104:AN106"/>
-    <mergeCell ref="AN108:AN110"/>
-    <mergeCell ref="AN112:AN114"/>
-    <mergeCell ref="AN116:AN118"/>
     <mergeCell ref="AN84:AN86"/>
     <mergeCell ref="AN88:AN90"/>
     <mergeCell ref="AN92:AN94"/>
@@ -88698,6 +88498,206 @@
     <mergeCell ref="AN24:AN26"/>
     <mergeCell ref="AN28:AN30"/>
     <mergeCell ref="AN32:AN34"/>
+    <mergeCell ref="AN120:AN122"/>
+    <mergeCell ref="AN124:AN126"/>
+    <mergeCell ref="AN128:AN130"/>
+    <mergeCell ref="AN132:AN134"/>
+    <mergeCell ref="AN136:AN138"/>
+    <mergeCell ref="AN100:AN102"/>
+    <mergeCell ref="AN104:AN106"/>
+    <mergeCell ref="AN108:AN110"/>
+    <mergeCell ref="AN112:AN114"/>
+    <mergeCell ref="AN116:AN118"/>
+    <mergeCell ref="AN160:AN162"/>
+    <mergeCell ref="AN164:AN166"/>
+    <mergeCell ref="AN168:AN170"/>
+    <mergeCell ref="AN172:AN174"/>
+    <mergeCell ref="AN176:AN178"/>
+    <mergeCell ref="AN140:AN142"/>
+    <mergeCell ref="AN144:AN146"/>
+    <mergeCell ref="AN148:AN150"/>
+    <mergeCell ref="AN152:AN154"/>
+    <mergeCell ref="AN156:AN158"/>
+    <mergeCell ref="AN200:AN202"/>
+    <mergeCell ref="AN204:AN206"/>
+    <mergeCell ref="AN208:AN210"/>
+    <mergeCell ref="AN212:AN214"/>
+    <mergeCell ref="AN216:AN218"/>
+    <mergeCell ref="AN180:AN182"/>
+    <mergeCell ref="AN184:AN186"/>
+    <mergeCell ref="AN188:AN190"/>
+    <mergeCell ref="AN192:AN194"/>
+    <mergeCell ref="AN196:AN198"/>
+    <mergeCell ref="AN240:AN242"/>
+    <mergeCell ref="AN244:AN246"/>
+    <mergeCell ref="AN248:AN250"/>
+    <mergeCell ref="AN252:AN254"/>
+    <mergeCell ref="AN256:AN258"/>
+    <mergeCell ref="AN220:AN222"/>
+    <mergeCell ref="AN224:AN226"/>
+    <mergeCell ref="AN228:AN230"/>
+    <mergeCell ref="AN232:AN234"/>
+    <mergeCell ref="AN236:AN238"/>
+    <mergeCell ref="AN280:AN282"/>
+    <mergeCell ref="AN284:AN286"/>
+    <mergeCell ref="AN288:AN290"/>
+    <mergeCell ref="AN292:AN294"/>
+    <mergeCell ref="AN296:AN298"/>
+    <mergeCell ref="AN260:AN262"/>
+    <mergeCell ref="AN264:AN266"/>
+    <mergeCell ref="AN268:AN270"/>
+    <mergeCell ref="AN272:AN274"/>
+    <mergeCell ref="AN276:AN278"/>
+    <mergeCell ref="AN320:AN322"/>
+    <mergeCell ref="AN324:AN326"/>
+    <mergeCell ref="AN328:AN330"/>
+    <mergeCell ref="AN332:AN334"/>
+    <mergeCell ref="AN336:AN338"/>
+    <mergeCell ref="AN300:AN302"/>
+    <mergeCell ref="AN304:AN306"/>
+    <mergeCell ref="AN308:AN310"/>
+    <mergeCell ref="AN312:AN314"/>
+    <mergeCell ref="AN316:AN318"/>
+    <mergeCell ref="AN360:AN362"/>
+    <mergeCell ref="AN364:AN366"/>
+    <mergeCell ref="AN368:AN370"/>
+    <mergeCell ref="AN372:AN374"/>
+    <mergeCell ref="AN376:AN378"/>
+    <mergeCell ref="AN340:AN342"/>
+    <mergeCell ref="AN344:AN346"/>
+    <mergeCell ref="AN348:AN350"/>
+    <mergeCell ref="AN352:AN354"/>
+    <mergeCell ref="AN356:AN358"/>
+    <mergeCell ref="AN400:AN402"/>
+    <mergeCell ref="AN404:AN406"/>
+    <mergeCell ref="AN408:AN410"/>
+    <mergeCell ref="AN412:AN414"/>
+    <mergeCell ref="AN416:AN418"/>
+    <mergeCell ref="AN380:AN382"/>
+    <mergeCell ref="AN384:AN386"/>
+    <mergeCell ref="AN388:AN390"/>
+    <mergeCell ref="AN392:AN394"/>
+    <mergeCell ref="AN396:AN398"/>
+    <mergeCell ref="AN440:AN442"/>
+    <mergeCell ref="AN444:AN446"/>
+    <mergeCell ref="AN448:AN450"/>
+    <mergeCell ref="AN452:AN454"/>
+    <mergeCell ref="AN456:AN458"/>
+    <mergeCell ref="AN420:AN422"/>
+    <mergeCell ref="AN424:AN426"/>
+    <mergeCell ref="AN428:AN430"/>
+    <mergeCell ref="AN432:AN434"/>
+    <mergeCell ref="AN436:AN438"/>
+    <mergeCell ref="AN480:AN482"/>
+    <mergeCell ref="AN484:AN486"/>
+    <mergeCell ref="AN488:AN490"/>
+    <mergeCell ref="AN492:AN494"/>
+    <mergeCell ref="AN496:AN498"/>
+    <mergeCell ref="AN460:AN462"/>
+    <mergeCell ref="AN464:AN466"/>
+    <mergeCell ref="AN468:AN470"/>
+    <mergeCell ref="AN472:AN474"/>
+    <mergeCell ref="AN476:AN478"/>
+    <mergeCell ref="AN520:AN522"/>
+    <mergeCell ref="AN524:AN526"/>
+    <mergeCell ref="AN528:AN530"/>
+    <mergeCell ref="AN532:AN534"/>
+    <mergeCell ref="AN536:AN538"/>
+    <mergeCell ref="AN500:AN502"/>
+    <mergeCell ref="AN504:AN506"/>
+    <mergeCell ref="AN508:AN510"/>
+    <mergeCell ref="AN512:AN514"/>
+    <mergeCell ref="AN516:AN518"/>
+    <mergeCell ref="AN560:AN562"/>
+    <mergeCell ref="AN564:AN566"/>
+    <mergeCell ref="AN568:AN570"/>
+    <mergeCell ref="AN572:AN574"/>
+    <mergeCell ref="AN576:AN578"/>
+    <mergeCell ref="AN540:AN542"/>
+    <mergeCell ref="AN544:AN546"/>
+    <mergeCell ref="AN548:AN550"/>
+    <mergeCell ref="AN552:AN554"/>
+    <mergeCell ref="AN556:AN558"/>
+    <mergeCell ref="AN600:AN602"/>
+    <mergeCell ref="AN604:AN606"/>
+    <mergeCell ref="AN608:AN610"/>
+    <mergeCell ref="AN612:AN614"/>
+    <mergeCell ref="AN616:AN618"/>
+    <mergeCell ref="AN580:AN582"/>
+    <mergeCell ref="AN584:AN586"/>
+    <mergeCell ref="AN588:AN590"/>
+    <mergeCell ref="AN592:AN594"/>
+    <mergeCell ref="AN596:AN598"/>
+    <mergeCell ref="AN640:AN642"/>
+    <mergeCell ref="AN644:AN646"/>
+    <mergeCell ref="AN648:AN650"/>
+    <mergeCell ref="AN652:AN654"/>
+    <mergeCell ref="AN656:AN658"/>
+    <mergeCell ref="AN620:AN622"/>
+    <mergeCell ref="AN624:AN626"/>
+    <mergeCell ref="AN628:AN630"/>
+    <mergeCell ref="AN632:AN634"/>
+    <mergeCell ref="AN636:AN638"/>
+    <mergeCell ref="AN680:AN682"/>
+    <mergeCell ref="AN684:AN686"/>
+    <mergeCell ref="AN688:AN690"/>
+    <mergeCell ref="AN692:AN694"/>
+    <mergeCell ref="AN696:AN698"/>
+    <mergeCell ref="AN724:AN726"/>
+    <mergeCell ref="AN728:AN730"/>
+    <mergeCell ref="AN732:AN734"/>
+    <mergeCell ref="AN660:AN662"/>
+    <mergeCell ref="AN664:AN666"/>
+    <mergeCell ref="AN668:AN670"/>
+    <mergeCell ref="AN672:AN674"/>
+    <mergeCell ref="AN676:AN678"/>
+    <mergeCell ref="AN736:AN738"/>
+    <mergeCell ref="AN740:AN742"/>
+    <mergeCell ref="AN700:AN702"/>
+    <mergeCell ref="AN704:AN706"/>
+    <mergeCell ref="AN708:AN710"/>
+    <mergeCell ref="AN716:AN718"/>
+    <mergeCell ref="AN720:AN722"/>
+    <mergeCell ref="AN764:AN766"/>
+    <mergeCell ref="AN768:AN770"/>
+    <mergeCell ref="AN712:AN714"/>
+    <mergeCell ref="AN772:AN774"/>
+    <mergeCell ref="AN776:AN778"/>
+    <mergeCell ref="AN780:AN782"/>
+    <mergeCell ref="AN744:AN746"/>
+    <mergeCell ref="AN748:AN750"/>
+    <mergeCell ref="AN752:AN754"/>
+    <mergeCell ref="AN756:AN758"/>
+    <mergeCell ref="AN760:AN762"/>
+    <mergeCell ref="AN804:AN806"/>
+    <mergeCell ref="AN808:AN810"/>
+    <mergeCell ref="AN812:AN814"/>
+    <mergeCell ref="AN816:AN818"/>
+    <mergeCell ref="AN820:AN822"/>
+    <mergeCell ref="AN784:AN786"/>
+    <mergeCell ref="AN788:AN790"/>
+    <mergeCell ref="AN792:AN794"/>
+    <mergeCell ref="AN796:AN798"/>
+    <mergeCell ref="AN800:AN802"/>
+    <mergeCell ref="AN844:AN846"/>
+    <mergeCell ref="AN848:AN850"/>
+    <mergeCell ref="AN852:AN854"/>
+    <mergeCell ref="AN856:AN858"/>
+    <mergeCell ref="AN860:AN862"/>
+    <mergeCell ref="AN824:AN826"/>
+    <mergeCell ref="AN828:AN830"/>
+    <mergeCell ref="AN832:AN834"/>
+    <mergeCell ref="AN836:AN838"/>
+    <mergeCell ref="AN840:AN842"/>
+    <mergeCell ref="AN884:AN886"/>
+    <mergeCell ref="AN888:AN890"/>
+    <mergeCell ref="AN892:AN894"/>
+    <mergeCell ref="AN896:AN898"/>
+    <mergeCell ref="AN864:AN866"/>
+    <mergeCell ref="AN868:AN870"/>
+    <mergeCell ref="AN872:AN874"/>
+    <mergeCell ref="AN876:AN878"/>
+    <mergeCell ref="AN880:AN882"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{4C6B2F2C-42F1-414E-9EAB-68A5DFFAFB71}"/>
